--- a/revenue_worksheet/template_umsatzanalyse_mit_sparten.xlsx
+++ b/revenue_worksheet/template_umsatzanalyse_mit_sparten.xlsx
@@ -5,18 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rawpartnerde-my.sharepoint.com/personal/lorenz_raw-partner_de/Documents/DHBW/Bachelorarbeit/auditrevenue/revenue_worksheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\auditrevenue\revenue_worksheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{9A7FCDCF-6037-4282-895B-5CF4E79DBBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DA0330F-4AEA-412F-AFFC-707EC6BB15A5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FC84A5-C0F0-45C7-AADB-D30504008677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DDBE617F-92B5-46E3-ADBE-B18A9A38B3D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{DDBE617F-92B5-46E3-ADBE-B18A9A38B3D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Umsatzanalyse" sheetId="1" r:id="rId1"/>
-    <sheet name="Stichprobe Unterjährig" sheetId="2" r:id="rId2"/>
-    <sheet name="Stichprobe Cut-off" sheetId="3" r:id="rId3"/>
+    <sheet name="Deckblatt" sheetId="4" r:id="rId1"/>
+    <sheet name="Umsatzanalyse" sheetId="1" r:id="rId2"/>
+    <sheet name="Stichprobe Unterjährig" sheetId="2" r:id="rId3"/>
+    <sheet name="Stichprobe Cut-off" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Deckblatt!$A$1:$H$50</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="64">
   <si>
     <t>Position:</t>
   </si>
@@ -185,6 +189,51 @@
   </si>
   <si>
     <t>Umsatzerlöse, Stichprobe Cut-off</t>
+  </si>
+  <si>
+    <t>Inhärentes Risko dieses Prüffeldes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontrollrisiko dieses Prüffelds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoch </t>
+  </si>
+  <si>
+    <t>Risikobeurteilung</t>
+  </si>
+  <si>
+    <t>Prüfungshandlungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schichten der Umsatzerlöse und Materialaufwendungen (nach Sparten) </t>
+  </si>
+  <si>
+    <t>Trendanalyse bezogen auf das Vor- und Berichtsjahr</t>
+  </si>
+  <si>
+    <t>Zeitvergleich der Entwicklungen zwischen Vor- und Berichtsjahr</t>
+  </si>
+  <si>
+    <t>Stichproben über einzelne Umsatzbuchungen während der Periode (Auswahl nach Monetary Unit Sampling)</t>
+  </si>
+  <si>
+    <t>Überprüfung der Periodenabgrenzung durch Stichproben einzelner Umsätze im Berichts und Folgejahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Prüfung führte zu: </t>
+  </si>
+  <si>
+    <t>Keinen Beanstandungen</t>
+  </si>
+  <si>
+    <t>Beanstandungen, die vom Mandanten behoben wurden</t>
+  </si>
+  <si>
+    <t>Beanstandungen, die vom Mandanten nicht behoben wurden</t>
+  </si>
+  <si>
+    <t>Risikobeurteilung, Prüfungshandlungen und Prüfungsergebnis</t>
   </si>
 </sst>
 </file>
@@ -420,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -485,12 +534,72 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -14687,6 +14796,23 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23585,19 +23711,304 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5693E181-A21A-44FF-9257-14D8CF6483D6}">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.5546875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:C4">
+    <cfRule type="expression" dxfId="33" priority="3">
+      <formula>ISBLANK(C3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="32" priority="2">
+      <formula>ISBLANK(C6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G10">
+    <cfRule type="expression" dxfId="31" priority="1">
+      <formula>ISBLANK(G5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC6B47C-5720-4ECE-88F3-DF7F0D5B44C8}">
   <dimension ref="A1:T491"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="3" width="13.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -23611,7 +24022,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -23621,7 +24032,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
@@ -23633,7 +24044,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
@@ -23645,7 +24056,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -23657,7 +24068,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
@@ -23671,7 +24082,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -23683,7 +24094,7 @@
       <c r="G7" s="29"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -23695,7 +24106,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="27"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -23707,7 +24118,7 @@
       <c r="G9" s="26"/>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -23719,7 +24130,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -23729,7 +24140,7 @@
       <c r="G11" s="26"/>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>9</v>
       </c>
@@ -23743,7 +24154,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -23753,7 +24164,7 @@
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -23777,10 +24188,10 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -23791,7 +24202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
@@ -23812,7 +24223,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="7"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
@@ -23834,7 +24245,7 @@
       <c r="S20" s="6"/>
       <c r="T20" s="7"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
@@ -23856,7 +24267,7 @@
       <c r="S21" s="6"/>
       <c r="T21" s="7"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
@@ -23878,7 +24289,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="7"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
@@ -23900,7 +24311,7 @@
       <c r="S23" s="6"/>
       <c r="T23" s="7"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
@@ -23922,7 +24333,7 @@
       <c r="S24" s="6"/>
       <c r="T24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>22</v>
       </c>
@@ -23944,7 +24355,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="7"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -23966,7 +24377,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="7"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>24</v>
       </c>
@@ -23988,7 +24399,7 @@
       <c r="S27" s="6"/>
       <c r="T27" s="7"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>25</v>
       </c>
@@ -24010,7 +24421,7 @@
       <c r="S28" s="6"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>26</v>
       </c>
@@ -24032,7 +24443,7 @@
       <c r="S29" s="6"/>
       <c r="T29" s="7"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>27</v>
       </c>
@@ -24054,7 +24465,7 @@
       <c r="S30" s="6"/>
       <c r="T30" s="7"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
@@ -24076,7 +24487,7 @@
       <c r="S31" s="6"/>
       <c r="T31" s="7"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>29</v>
       </c>
@@ -24105,7 +24516,7 @@
       <c r="S32" s="6"/>
       <c r="T32" s="7"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>30</v>
       </c>
@@ -24121,7 +24532,7 @@
       <c r="S33" s="6"/>
       <c r="T33" s="7"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>31</v>
       </c>
@@ -24143,28 +24554,28 @@
       <c r="S34" s="6"/>
       <c r="T34" s="7"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>32</v>
       </c>
@@ -24179,7 +24590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>13</v>
       </c>
@@ -24193,7 +24604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>17</v>
       </c>
@@ -24208,7 +24619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>18</v>
       </c>
@@ -24223,7 +24634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>19</v>
       </c>
@@ -24238,7 +24649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>20</v>
       </c>
@@ -24253,7 +24664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>21</v>
       </c>
@@ -24268,7 +24679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>22</v>
       </c>
@@ -24283,7 +24694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>23</v>
       </c>
@@ -24298,7 +24709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>24</v>
       </c>
@@ -24313,7 +24724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>25</v>
       </c>
@@ -24328,7 +24739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>26</v>
       </c>
@@ -24343,7 +24754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>27</v>
       </c>
@@ -24358,7 +24769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>28</v>
       </c>
@@ -24373,7 +24784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>29</v>
       </c>
@@ -24395,7 +24806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>30</v>
       </c>
@@ -24404,7 +24815,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="18"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>31</v>
       </c>
@@ -24419,7 +24830,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>35</v>
       </c>
@@ -24443,10 +24854,10 @@
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>11</v>
       </c>
@@ -24457,7 +24868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>13</v>
       </c>
@@ -24478,7 +24889,7 @@
       <c r="S63" s="6"/>
       <c r="T63" s="7"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>17</v>
       </c>
@@ -24500,7 +24911,7 @@
       <c r="S64" s="6"/>
       <c r="T64" s="7"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>18</v>
       </c>
@@ -24522,7 +24933,7 @@
       <c r="S65" s="6"/>
       <c r="T65" s="7"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>19</v>
       </c>
@@ -24544,7 +24955,7 @@
       <c r="S66" s="6"/>
       <c r="T66" s="7"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>20</v>
       </c>
@@ -24566,7 +24977,7 @@
       <c r="S67" s="6"/>
       <c r="T67" s="7"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>21</v>
       </c>
@@ -24588,7 +24999,7 @@
       <c r="S68" s="6"/>
       <c r="T68" s="7"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>22</v>
       </c>
@@ -24610,7 +25021,7 @@
       <c r="S69" s="6"/>
       <c r="T69" s="7"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>23</v>
       </c>
@@ -24632,7 +25043,7 @@
       <c r="S70" s="6"/>
       <c r="T70" s="7"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>24</v>
       </c>
@@ -24654,7 +25065,7 @@
       <c r="S71" s="6"/>
       <c r="T71" s="7"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>25</v>
       </c>
@@ -24676,7 +25087,7 @@
       <c r="S72" s="6"/>
       <c r="T72" s="7"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>26</v>
       </c>
@@ -24698,7 +25109,7 @@
       <c r="S73" s="6"/>
       <c r="T73" s="7"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>27</v>
       </c>
@@ -24720,7 +25131,7 @@
       <c r="S74" s="6"/>
       <c r="T74" s="7"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>28</v>
       </c>
@@ -24742,7 +25153,7 @@
       <c r="S75" s="6"/>
       <c r="T75" s="7"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>29</v>
       </c>
@@ -24771,7 +25182,7 @@
       <c r="S76" s="6"/>
       <c r="T76" s="7"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>30</v>
       </c>
@@ -24787,7 +25198,7 @@
       <c r="S77" s="6"/>
       <c r="T77" s="7"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>31</v>
       </c>
@@ -24809,28 +25220,28 @@
       <c r="S78" s="6"/>
       <c r="T78" s="7"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="E79" s="10"/>
       <c r="F79" s="16"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="16"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="E81" s="10"/>
       <c r="F81" s="16"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>32</v>
       </c>
@@ -24845,7 +25256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>13</v>
       </c>
@@ -24859,7 +25270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>17</v>
       </c>
@@ -24874,7 +25285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>18</v>
       </c>
@@ -24889,7 +25300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>19</v>
       </c>
@@ -24904,7 +25315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>20</v>
       </c>
@@ -24919,7 +25330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>21</v>
       </c>
@@ -24934,7 +25345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>22</v>
       </c>
@@ -24949,7 +25360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>23</v>
       </c>
@@ -24964,7 +25375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>24</v>
       </c>
@@ -24979,7 +25390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>25</v>
       </c>
@@ -24994,7 +25405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>26</v>
       </c>
@@ -25009,7 +25420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>27</v>
       </c>
@@ -25024,7 +25435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>28</v>
       </c>
@@ -25039,7 +25450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>29</v>
       </c>
@@ -25061,7 +25472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>30</v>
       </c>
@@ -25070,7 +25481,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="18"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>31</v>
       </c>
@@ -25085,7 +25496,7 @@
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>36</v>
       </c>
@@ -25109,10 +25520,10 @@
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>11</v>
       </c>
@@ -25123,7 +25534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>13</v>
       </c>
@@ -25144,7 +25555,7 @@
       <c r="S107" s="6"/>
       <c r="T107" s="7"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>17</v>
       </c>
@@ -25166,7 +25577,7 @@
       <c r="S108" s="6"/>
       <c r="T108" s="7"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>18</v>
       </c>
@@ -25188,7 +25599,7 @@
       <c r="S109" s="6"/>
       <c r="T109" s="7"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>19</v>
       </c>
@@ -25210,7 +25621,7 @@
       <c r="S110" s="6"/>
       <c r="T110" s="7"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>20</v>
       </c>
@@ -25232,7 +25643,7 @@
       <c r="S111" s="6"/>
       <c r="T111" s="7"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>21</v>
       </c>
@@ -25254,7 +25665,7 @@
       <c r="S112" s="6"/>
       <c r="T112" s="7"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>22</v>
       </c>
@@ -25276,7 +25687,7 @@
       <c r="S113" s="6"/>
       <c r="T113" s="7"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>23</v>
       </c>
@@ -25298,7 +25709,7 @@
       <c r="S114" s="6"/>
       <c r="T114" s="7"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>24</v>
       </c>
@@ -25320,7 +25731,7 @@
       <c r="S115" s="6"/>
       <c r="T115" s="7"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>25</v>
       </c>
@@ -25342,7 +25753,7 @@
       <c r="S116" s="6"/>
       <c r="T116" s="7"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>26</v>
       </c>
@@ -25364,7 +25775,7 @@
       <c r="S117" s="6"/>
       <c r="T117" s="7"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>27</v>
       </c>
@@ -25386,7 +25797,7 @@
       <c r="S118" s="6"/>
       <c r="T118" s="7"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>28</v>
       </c>
@@ -25408,7 +25819,7 @@
       <c r="S119" s="6"/>
       <c r="T119" s="7"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>29</v>
       </c>
@@ -25437,7 +25848,7 @@
       <c r="S120" s="6"/>
       <c r="T120" s="7"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>30</v>
       </c>
@@ -25453,7 +25864,7 @@
       <c r="S121" s="6"/>
       <c r="T121" s="7"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>31</v>
       </c>
@@ -25475,28 +25886,28 @@
       <c r="S122" s="6"/>
       <c r="T122" s="7"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="16"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="E124" s="10"/>
       <c r="F124" s="16"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
       <c r="E125" s="10"/>
       <c r="F125" s="16"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>32</v>
       </c>
@@ -25511,7 +25922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
         <v>13</v>
       </c>
@@ -25525,7 +25936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>17</v>
       </c>
@@ -25540,7 +25951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>18</v>
       </c>
@@ -25555,7 +25966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>19</v>
       </c>
@@ -25570,7 +25981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>20</v>
       </c>
@@ -25585,7 +25996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>21</v>
       </c>
@@ -25600,7 +26011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>22</v>
       </c>
@@ -25615,7 +26026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>23</v>
       </c>
@@ -25630,7 +26041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>24</v>
       </c>
@@ -25645,7 +26056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>25</v>
       </c>
@@ -25660,7 +26071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>26</v>
       </c>
@@ -25675,7 +26086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>27</v>
       </c>
@@ -25690,7 +26101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>28</v>
       </c>
@@ -25705,7 +26116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>29</v>
       </c>
@@ -25727,7 +26138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>30</v>
       </c>
@@ -25736,7 +26147,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="18"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>31</v>
       </c>
@@ -25751,7 +26162,7 @@
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>37</v>
       </c>
@@ -25775,10 +26186,10 @@
       <c r="S148" s="3"/>
       <c r="T148" s="3"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>11</v>
       </c>
@@ -25789,7 +26200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>13</v>
       </c>
@@ -25810,7 +26221,7 @@
       <c r="S151" s="6"/>
       <c r="T151" s="7"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>17</v>
       </c>
@@ -25832,7 +26243,7 @@
       <c r="S152" s="6"/>
       <c r="T152" s="7"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>18</v>
       </c>
@@ -25854,7 +26265,7 @@
       <c r="S153" s="6"/>
       <c r="T153" s="7"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>19</v>
       </c>
@@ -25876,7 +26287,7 @@
       <c r="S154" s="6"/>
       <c r="T154" s="7"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>20</v>
       </c>
@@ -25898,7 +26309,7 @@
       <c r="S155" s="6"/>
       <c r="T155" s="7"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>21</v>
       </c>
@@ -25920,7 +26331,7 @@
       <c r="S156" s="6"/>
       <c r="T156" s="7"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>22</v>
       </c>
@@ -25942,7 +26353,7 @@
       <c r="S157" s="6"/>
       <c r="T157" s="7"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>23</v>
       </c>
@@ -25964,7 +26375,7 @@
       <c r="S158" s="6"/>
       <c r="T158" s="7"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>24</v>
       </c>
@@ -25986,7 +26397,7 @@
       <c r="S159" s="6"/>
       <c r="T159" s="7"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>25</v>
       </c>
@@ -26008,7 +26419,7 @@
       <c r="S160" s="6"/>
       <c r="T160" s="7"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>26</v>
       </c>
@@ -26030,7 +26441,7 @@
       <c r="S161" s="6"/>
       <c r="T161" s="7"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>27</v>
       </c>
@@ -26052,7 +26463,7 @@
       <c r="S162" s="6"/>
       <c r="T162" s="7"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>28</v>
       </c>
@@ -26074,7 +26485,7 @@
       <c r="S163" s="6"/>
       <c r="T163" s="7"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>29</v>
       </c>
@@ -26103,7 +26514,7 @@
       <c r="S164" s="6"/>
       <c r="T164" s="7"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>30</v>
       </c>
@@ -26119,7 +26530,7 @@
       <c r="S165" s="6"/>
       <c r="T165" s="7"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>31</v>
       </c>
@@ -26141,28 +26552,28 @@
       <c r="S166" s="6"/>
       <c r="T166" s="7"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
       <c r="E167" s="10"/>
       <c r="F167" s="16"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
       <c r="E168" s="10"/>
       <c r="F168" s="16"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
       <c r="E169" s="10"/>
       <c r="F169" s="16"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
         <v>32</v>
       </c>
@@ -26177,7 +26588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
         <v>13</v>
       </c>
@@ -26191,7 +26602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>17</v>
       </c>
@@ -26206,7 +26617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>18</v>
       </c>
@@ -26221,7 +26632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>19</v>
       </c>
@@ -26236,7 +26647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>20</v>
       </c>
@@ -26251,7 +26662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>21</v>
       </c>
@@ -26266,7 +26677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>22</v>
       </c>
@@ -26281,7 +26692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>23</v>
       </c>
@@ -26296,7 +26707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>24</v>
       </c>
@@ -26311,7 +26722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>25</v>
       </c>
@@ -26326,7 +26737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>26</v>
       </c>
@@ -26341,7 +26752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>27</v>
       </c>
@@ -26356,7 +26767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>28</v>
       </c>
@@ -26371,7 +26782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>29</v>
       </c>
@@ -26393,7 +26804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>30</v>
       </c>
@@ -26402,7 +26813,7 @@
       <c r="E185" s="10"/>
       <c r="F185" s="18"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>31</v>
       </c>
@@ -26417,7 +26828,7 @@
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>38</v>
       </c>
@@ -26441,10 +26852,10 @@
       <c r="S189" s="3"/>
       <c r="T189" s="3"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>11</v>
       </c>
@@ -26455,7 +26866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>13</v>
       </c>
@@ -26476,7 +26887,7 @@
       <c r="S192" s="6"/>
       <c r="T192" s="7"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>17</v>
       </c>
@@ -26498,7 +26909,7 @@
       <c r="S193" s="6"/>
       <c r="T193" s="7"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>18</v>
       </c>
@@ -26520,7 +26931,7 @@
       <c r="S194" s="6"/>
       <c r="T194" s="7"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>19</v>
       </c>
@@ -26542,7 +26953,7 @@
       <c r="S195" s="6"/>
       <c r="T195" s="7"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>20</v>
       </c>
@@ -26564,7 +26975,7 @@
       <c r="S196" s="6"/>
       <c r="T196" s="7"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>21</v>
       </c>
@@ -26586,7 +26997,7 @@
       <c r="S197" s="6"/>
       <c r="T197" s="7"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>22</v>
       </c>
@@ -26608,7 +27019,7 @@
       <c r="S198" s="6"/>
       <c r="T198" s="7"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>23</v>
       </c>
@@ -26630,7 +27041,7 @@
       <c r="S199" s="6"/>
       <c r="T199" s="7"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>24</v>
       </c>
@@ -26652,7 +27063,7 @@
       <c r="S200" s="6"/>
       <c r="T200" s="7"/>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>25</v>
       </c>
@@ -26674,7 +27085,7 @@
       <c r="S201" s="6"/>
       <c r="T201" s="7"/>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>26</v>
       </c>
@@ -26696,7 +27107,7 @@
       <c r="S202" s="6"/>
       <c r="T202" s="7"/>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>27</v>
       </c>
@@ -26718,7 +27129,7 @@
       <c r="S203" s="6"/>
       <c r="T203" s="7"/>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>28</v>
       </c>
@@ -26740,7 +27151,7 @@
       <c r="S204" s="6"/>
       <c r="T204" s="7"/>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>29</v>
       </c>
@@ -26769,7 +27180,7 @@
       <c r="S205" s="6"/>
       <c r="T205" s="7"/>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>30</v>
       </c>
@@ -26785,7 +27196,7 @@
       <c r="S206" s="6"/>
       <c r="T206" s="7"/>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>31</v>
       </c>
@@ -26807,28 +27218,28 @@
       <c r="S207" s="6"/>
       <c r="T207" s="7"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
       <c r="E208" s="10"/>
       <c r="F208" s="16"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
       <c r="E209" s="10"/>
       <c r="F209" s="16"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
       <c r="E210" s="10"/>
       <c r="F210" s="16"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="17" t="s">
         <v>32</v>
       </c>
@@ -26843,7 +27254,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B212" s="10" t="s">
         <v>13</v>
       </c>
@@ -26857,7 +27268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>17</v>
       </c>
@@ -26872,7 +27283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>18</v>
       </c>
@@ -26887,7 +27298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>19</v>
       </c>
@@ -26902,7 +27313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>20</v>
       </c>
@@ -26917,7 +27328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>21</v>
       </c>
@@ -26932,7 +27343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>22</v>
       </c>
@@ -26947,7 +27358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>23</v>
       </c>
@@ -26962,7 +27373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>24</v>
       </c>
@@ -26977,7 +27388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>25</v>
       </c>
@@ -26992,7 +27403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>26</v>
       </c>
@@ -27007,7 +27418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>27</v>
       </c>
@@ -27022,7 +27433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>28</v>
       </c>
@@ -27037,7 +27448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>29</v>
       </c>
@@ -27059,7 +27470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>30</v>
       </c>
@@ -27068,7 +27479,7 @@
       <c r="E226" s="10"/>
       <c r="F226" s="18"/>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>31</v>
       </c>
@@ -27083,7 +27494,7 @@
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>40</v>
       </c>
@@ -27107,10 +27518,10 @@
       <c r="S233" s="3"/>
       <c r="T233" s="3"/>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>11</v>
       </c>
@@ -27121,7 +27532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
         <v>13</v>
       </c>
@@ -27142,7 +27553,7 @@
       <c r="S236" s="6"/>
       <c r="T236" s="7"/>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>17</v>
       </c>
@@ -27164,7 +27575,7 @@
       <c r="S237" s="6"/>
       <c r="T237" s="7"/>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>18</v>
       </c>
@@ -27186,7 +27597,7 @@
       <c r="S238" s="6"/>
       <c r="T238" s="7"/>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>19</v>
       </c>
@@ -27208,7 +27619,7 @@
       <c r="S239" s="6"/>
       <c r="T239" s="7"/>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>20</v>
       </c>
@@ -27230,7 +27641,7 @@
       <c r="S240" s="6"/>
       <c r="T240" s="7"/>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>21</v>
       </c>
@@ -27252,7 +27663,7 @@
       <c r="S241" s="6"/>
       <c r="T241" s="7"/>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>22</v>
       </c>
@@ -27274,7 +27685,7 @@
       <c r="S242" s="6"/>
       <c r="T242" s="7"/>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
         <v>23</v>
       </c>
@@ -27296,7 +27707,7 @@
       <c r="S243" s="6"/>
       <c r="T243" s="7"/>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>24</v>
       </c>
@@ -27318,7 +27729,7 @@
       <c r="S244" s="6"/>
       <c r="T244" s="7"/>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>25</v>
       </c>
@@ -27340,7 +27751,7 @@
       <c r="S245" s="6"/>
       <c r="T245" s="7"/>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>26</v>
       </c>
@@ -27362,7 +27773,7 @@
       <c r="S246" s="6"/>
       <c r="T246" s="7"/>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>27</v>
       </c>
@@ -27384,7 +27795,7 @@
       <c r="S247" s="6"/>
       <c r="T247" s="7"/>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>28</v>
       </c>
@@ -27406,7 +27817,7 @@
       <c r="S248" s="6"/>
       <c r="T248" s="7"/>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>29</v>
       </c>
@@ -27435,7 +27846,7 @@
       <c r="S249" s="6"/>
       <c r="T249" s="7"/>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>30</v>
       </c>
@@ -27451,7 +27862,7 @@
       <c r="S250" s="6"/>
       <c r="T250" s="7"/>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>31</v>
       </c>
@@ -27473,28 +27884,28 @@
       <c r="S251" s="6"/>
       <c r="T251" s="7"/>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
       <c r="E252" s="10"/>
       <c r="F252" s="16"/>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
       <c r="E253" s="10"/>
       <c r="F253" s="16"/>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" s="9"/>
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
       <c r="E254" s="10"/>
       <c r="F254" s="16"/>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" s="17" t="s">
         <v>32</v>
       </c>
@@ -27509,7 +27920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B256" s="10" t="s">
         <v>13</v>
       </c>
@@ -27523,7 +27934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
         <v>17</v>
       </c>
@@ -27538,7 +27949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
         <v>18</v>
       </c>
@@ -27553,7 +27964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>19</v>
       </c>
@@ -27568,7 +27979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
         <v>20</v>
       </c>
@@ -27583,7 +27994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
         <v>21</v>
       </c>
@@ -27598,7 +28009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>22</v>
       </c>
@@ -27613,7 +28024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
         <v>23</v>
       </c>
@@ -27628,7 +28039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
         <v>24</v>
       </c>
@@ -27643,7 +28054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
         <v>25</v>
       </c>
@@ -27658,7 +28069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
         <v>26</v>
       </c>
@@ -27673,7 +28084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>27</v>
       </c>
@@ -27688,7 +28099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>28</v>
       </c>
@@ -27703,7 +28114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>29</v>
       </c>
@@ -27725,7 +28136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
         <v>30</v>
       </c>
@@ -27734,7 +28145,7 @@
       <c r="E270" s="10"/>
       <c r="F270" s="18"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
         <v>31</v>
       </c>
@@ -27749,7 +28160,7 @@
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>39</v>
       </c>
@@ -27773,10 +28184,10 @@
       <c r="S277" s="3"/>
       <c r="T277" s="3"/>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>11</v>
       </c>
@@ -27787,7 +28198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
         <v>13</v>
       </c>
@@ -27808,7 +28219,7 @@
       <c r="S280" s="6"/>
       <c r="T280" s="7"/>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>17</v>
       </c>
@@ -27830,7 +28241,7 @@
       <c r="S281" s="6"/>
       <c r="T281" s="7"/>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
         <v>18</v>
       </c>
@@ -27852,7 +28263,7 @@
       <c r="S282" s="6"/>
       <c r="T282" s="7"/>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>19</v>
       </c>
@@ -27874,7 +28285,7 @@
       <c r="S283" s="6"/>
       <c r="T283" s="7"/>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
         <v>20</v>
       </c>
@@ -27896,7 +28307,7 @@
       <c r="S284" s="6"/>
       <c r="T284" s="7"/>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
         <v>21</v>
       </c>
@@ -27918,7 +28329,7 @@
       <c r="S285" s="6"/>
       <c r="T285" s="7"/>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
         <v>22</v>
       </c>
@@ -27940,7 +28351,7 @@
       <c r="S286" s="6"/>
       <c r="T286" s="7"/>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
         <v>23</v>
       </c>
@@ -27962,7 +28373,7 @@
       <c r="S287" s="6"/>
       <c r="T287" s="7"/>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
         <v>24</v>
       </c>
@@ -27984,7 +28395,7 @@
       <c r="S288" s="6"/>
       <c r="T288" s="7"/>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
         <v>25</v>
       </c>
@@ -28006,7 +28417,7 @@
       <c r="S289" s="6"/>
       <c r="T289" s="7"/>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
         <v>26</v>
       </c>
@@ -28028,7 +28439,7 @@
       <c r="S290" s="6"/>
       <c r="T290" s="7"/>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
         <v>27</v>
       </c>
@@ -28050,7 +28461,7 @@
       <c r="S291" s="6"/>
       <c r="T291" s="7"/>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
         <v>28</v>
       </c>
@@ -28072,7 +28483,7 @@
       <c r="S292" s="6"/>
       <c r="T292" s="7"/>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
         <v>29</v>
       </c>
@@ -28101,7 +28512,7 @@
       <c r="S293" s="6"/>
       <c r="T293" s="7"/>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
         <v>30</v>
       </c>
@@ -28117,7 +28528,7 @@
       <c r="S294" s="6"/>
       <c r="T294" s="7"/>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
         <v>31</v>
       </c>
@@ -28139,28 +28550,28 @@
       <c r="S295" s="6"/>
       <c r="T295" s="7"/>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" s="9"/>
       <c r="B296" s="10"/>
       <c r="C296" s="10"/>
       <c r="E296" s="10"/>
       <c r="F296" s="16"/>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" s="9"/>
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
       <c r="E297" s="10"/>
       <c r="F297" s="16"/>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298" s="9"/>
       <c r="B298" s="10"/>
       <c r="C298" s="10"/>
       <c r="E298" s="10"/>
       <c r="F298" s="16"/>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299" s="17" t="s">
         <v>32</v>
       </c>
@@ -28175,7 +28586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B300" s="10" t="s">
         <v>13</v>
       </c>
@@ -28189,7 +28600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
         <v>17</v>
       </c>
@@ -28204,7 +28615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
         <v>18</v>
       </c>
@@ -28219,7 +28630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
         <v>19</v>
       </c>
@@ -28234,7 +28645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
         <v>20</v>
       </c>
@@ -28249,7 +28660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
         <v>21</v>
       </c>
@@ -28264,7 +28675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
         <v>22</v>
       </c>
@@ -28279,7 +28690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
         <v>23</v>
       </c>
@@ -28294,7 +28705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
         <v>24</v>
       </c>
@@ -28309,7 +28720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
         <v>25</v>
       </c>
@@ -28324,7 +28735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
         <v>26</v>
       </c>
@@ -28339,7 +28750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
         <v>27</v>
       </c>
@@ -28354,7 +28765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
         <v>28</v>
       </c>
@@ -28369,7 +28780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
         <v>29</v>
       </c>
@@ -28391,7 +28802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>30</v>
       </c>
@@ -28400,7 +28811,7 @@
       <c r="E314" s="10"/>
       <c r="F314" s="18"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
         <v>31</v>
       </c>
@@ -28415,7 +28826,7 @@
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>41</v>
       </c>
@@ -28439,10 +28850,10 @@
       <c r="S321" s="3"/>
       <c r="T321" s="3"/>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>11</v>
       </c>
@@ -28453,7 +28864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
         <v>13</v>
       </c>
@@ -28474,7 +28885,7 @@
       <c r="S324" s="6"/>
       <c r="T324" s="7"/>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
         <v>17</v>
       </c>
@@ -28496,7 +28907,7 @@
       <c r="S325" s="6"/>
       <c r="T325" s="7"/>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
         <v>18</v>
       </c>
@@ -28518,7 +28929,7 @@
       <c r="S326" s="6"/>
       <c r="T326" s="7"/>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
         <v>19</v>
       </c>
@@ -28540,7 +28951,7 @@
       <c r="S327" s="6"/>
       <c r="T327" s="7"/>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
         <v>20</v>
       </c>
@@ -28562,7 +28973,7 @@
       <c r="S328" s="6"/>
       <c r="T328" s="7"/>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
         <v>21</v>
       </c>
@@ -28584,7 +28995,7 @@
       <c r="S329" s="6"/>
       <c r="T329" s="7"/>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
         <v>22</v>
       </c>
@@ -28606,7 +29017,7 @@
       <c r="S330" s="6"/>
       <c r="T330" s="7"/>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
         <v>23</v>
       </c>
@@ -28628,7 +29039,7 @@
       <c r="S331" s="6"/>
       <c r="T331" s="7"/>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
         <v>24</v>
       </c>
@@ -28650,7 +29061,7 @@
       <c r="S332" s="6"/>
       <c r="T332" s="7"/>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
         <v>25</v>
       </c>
@@ -28672,7 +29083,7 @@
       <c r="S333" s="6"/>
       <c r="T333" s="7"/>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
         <v>26</v>
       </c>
@@ -28694,7 +29105,7 @@
       <c r="S334" s="6"/>
       <c r="T334" s="7"/>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
         <v>27</v>
       </c>
@@ -28716,7 +29127,7 @@
       <c r="S335" s="6"/>
       <c r="T335" s="7"/>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
         <v>28</v>
       </c>
@@ -28738,7 +29149,7 @@
       <c r="S336" s="6"/>
       <c r="T336" s="7"/>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
         <v>29</v>
       </c>
@@ -28767,7 +29178,7 @@
       <c r="S337" s="6"/>
       <c r="T337" s="7"/>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
         <v>30</v>
       </c>
@@ -28783,7 +29194,7 @@
       <c r="S338" s="6"/>
       <c r="T338" s="7"/>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
         <v>31</v>
       </c>
@@ -28805,28 +29216,28 @@
       <c r="S339" s="6"/>
       <c r="T339" s="7"/>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340" s="9"/>
       <c r="B340" s="10"/>
       <c r="C340" s="10"/>
       <c r="E340" s="10"/>
       <c r="F340" s="16"/>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341" s="9"/>
       <c r="B341" s="10"/>
       <c r="C341" s="10"/>
       <c r="E341" s="10"/>
       <c r="F341" s="16"/>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342" s="9"/>
       <c r="B342" s="10"/>
       <c r="C342" s="10"/>
       <c r="E342" s="10"/>
       <c r="F342" s="16"/>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343" s="17" t="s">
         <v>32</v>
       </c>
@@ -28841,7 +29252,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B344" s="10" t="s">
         <v>13</v>
       </c>
@@ -28855,7 +29266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
         <v>17</v>
       </c>
@@ -28870,7 +29281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
         <v>18</v>
       </c>
@@ -28885,7 +29296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
         <v>19</v>
       </c>
@@ -28900,7 +29311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
         <v>20</v>
       </c>
@@ -28915,7 +29326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
         <v>21</v>
       </c>
@@ -28930,7 +29341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
         <v>22</v>
       </c>
@@ -28945,7 +29356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
         <v>23</v>
       </c>
@@ -28960,7 +29371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="s">
         <v>24</v>
       </c>
@@ -28975,7 +29386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
         <v>25</v>
       </c>
@@ -28990,7 +29401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
         <v>26</v>
       </c>
@@ -29005,7 +29416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
         <v>27</v>
       </c>
@@ -29020,7 +29431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
         <v>28</v>
       </c>
@@ -29035,7 +29446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
         <v>29</v>
       </c>
@@ -29057,7 +29468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
         <v>30</v>
       </c>
@@ -29066,7 +29477,7 @@
       <c r="E358" s="10"/>
       <c r="F358" s="18"/>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
         <v>31</v>
       </c>
@@ -29081,7 +29492,7 @@
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>44</v>
       </c>
@@ -29105,10 +29516,10 @@
       <c r="S365" s="3"/>
       <c r="T365" s="3"/>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
         <v>11</v>
       </c>
@@ -29119,7 +29530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B368" s="1" t="s">
         <v>13</v>
       </c>
@@ -29140,7 +29551,7 @@
       <c r="S368" s="6"/>
       <c r="T368" s="7"/>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
         <v>17</v>
       </c>
@@ -29162,7 +29573,7 @@
       <c r="S369" s="6"/>
       <c r="T369" s="7"/>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
         <v>18</v>
       </c>
@@ -29184,7 +29595,7 @@
       <c r="S370" s="6"/>
       <c r="T370" s="7"/>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
         <v>19</v>
       </c>
@@ -29206,7 +29617,7 @@
       <c r="S371" s="6"/>
       <c r="T371" s="7"/>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
         <v>20</v>
       </c>
@@ -29228,7 +29639,7 @@
       <c r="S372" s="6"/>
       <c r="T372" s="7"/>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="s">
         <v>21</v>
       </c>
@@ -29250,7 +29661,7 @@
       <c r="S373" s="6"/>
       <c r="T373" s="7"/>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
         <v>22</v>
       </c>
@@ -29272,7 +29683,7 @@
       <c r="S374" s="6"/>
       <c r="T374" s="7"/>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
         <v>23</v>
       </c>
@@ -29294,7 +29705,7 @@
       <c r="S375" s="6"/>
       <c r="T375" s="7"/>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
         <v>24</v>
       </c>
@@ -29316,7 +29727,7 @@
       <c r="S376" s="6"/>
       <c r="T376" s="7"/>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="s">
         <v>25</v>
       </c>
@@ -29338,7 +29749,7 @@
       <c r="S377" s="6"/>
       <c r="T377" s="7"/>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
         <v>26</v>
       </c>
@@ -29360,7 +29771,7 @@
       <c r="S378" s="6"/>
       <c r="T378" s="7"/>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
         <v>27</v>
       </c>
@@ -29382,7 +29793,7 @@
       <c r="S379" s="6"/>
       <c r="T379" s="7"/>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
         <v>28</v>
       </c>
@@ -29404,7 +29815,7 @@
       <c r="S380" s="6"/>
       <c r="T380" s="7"/>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="s">
         <v>29</v>
       </c>
@@ -29433,7 +29844,7 @@
       <c r="S381" s="6"/>
       <c r="T381" s="7"/>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
         <v>30</v>
       </c>
@@ -29449,7 +29860,7 @@
       <c r="S382" s="6"/>
       <c r="T382" s="7"/>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A383" s="9" t="s">
         <v>31</v>
       </c>
@@ -29471,28 +29882,28 @@
       <c r="S383" s="6"/>
       <c r="T383" s="7"/>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A384" s="9"/>
       <c r="B384" s="10"/>
       <c r="C384" s="10"/>
       <c r="E384" s="10"/>
       <c r="F384" s="16"/>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" s="9"/>
       <c r="B385" s="10"/>
       <c r="C385" s="10"/>
       <c r="E385" s="10"/>
       <c r="F385" s="16"/>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" s="9"/>
       <c r="B386" s="10"/>
       <c r="C386" s="10"/>
       <c r="E386" s="10"/>
       <c r="F386" s="16"/>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" s="17" t="s">
         <v>32</v>
       </c>
@@ -29507,7 +29918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B388" s="10" t="s">
         <v>13</v>
       </c>
@@ -29521,7 +29932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
         <v>17</v>
       </c>
@@ -29536,7 +29947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="s">
         <v>18</v>
       </c>
@@ -29551,7 +29962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
         <v>19</v>
       </c>
@@ -29566,7 +29977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
         <v>20</v>
       </c>
@@ -29581,7 +29992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
         <v>21</v>
       </c>
@@ -29596,7 +30007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
         <v>22</v>
       </c>
@@ -29611,7 +30022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
         <v>23</v>
       </c>
@@ -29626,7 +30037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="s">
         <v>24</v>
       </c>
@@ -29641,7 +30052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
         <v>25</v>
       </c>
@@ -29656,7 +30067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
         <v>26</v>
       </c>
@@ -29671,7 +30082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
         <v>27</v>
       </c>
@@ -29686,7 +30097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
         <v>28</v>
       </c>
@@ -29701,7 +30112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
         <v>29</v>
       </c>
@@ -29723,7 +30134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
         <v>30</v>
       </c>
@@ -29732,7 +30143,7 @@
       <c r="E402" s="10"/>
       <c r="F402" s="18"/>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
         <v>31</v>
       </c>
@@ -29747,7 +30158,7 @@
       <c r="E403" s="10"/>
       <c r="F403" s="10"/>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>43</v>
       </c>
@@ -29771,10 +30182,10 @@
       <c r="S409" s="3"/>
       <c r="T409" s="3"/>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
         <v>11</v>
       </c>
@@ -29785,7 +30196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
         <v>13</v>
       </c>
@@ -29806,7 +30217,7 @@
       <c r="S412" s="6"/>
       <c r="T412" s="7"/>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A413" s="9" t="s">
         <v>17</v>
       </c>
@@ -29828,7 +30239,7 @@
       <c r="S413" s="6"/>
       <c r="T413" s="7"/>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A414" s="9" t="s">
         <v>18</v>
       </c>
@@ -29850,7 +30261,7 @@
       <c r="S414" s="6"/>
       <c r="T414" s="7"/>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A415" s="9" t="s">
         <v>19</v>
       </c>
@@ -29872,7 +30283,7 @@
       <c r="S415" s="6"/>
       <c r="T415" s="7"/>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A416" s="9" t="s">
         <v>20</v>
       </c>
@@ -29894,7 +30305,7 @@
       <c r="S416" s="6"/>
       <c r="T416" s="7"/>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="s">
         <v>21</v>
       </c>
@@ -29916,7 +30327,7 @@
       <c r="S417" s="6"/>
       <c r="T417" s="7"/>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A418" s="9" t="s">
         <v>22</v>
       </c>
@@ -29938,7 +30349,7 @@
       <c r="S418" s="6"/>
       <c r="T418" s="7"/>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A419" s="9" t="s">
         <v>23</v>
       </c>
@@ -29960,7 +30371,7 @@
       <c r="S419" s="6"/>
       <c r="T419" s="7"/>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="s">
         <v>24</v>
       </c>
@@ -29982,7 +30393,7 @@
       <c r="S420" s="6"/>
       <c r="T420" s="7"/>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="s">
         <v>25</v>
       </c>
@@ -30004,7 +30415,7 @@
       <c r="S421" s="6"/>
       <c r="T421" s="7"/>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="s">
         <v>26</v>
       </c>
@@ -30026,7 +30437,7 @@
       <c r="S422" s="6"/>
       <c r="T422" s="7"/>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="s">
         <v>27</v>
       </c>
@@ -30048,7 +30459,7 @@
       <c r="S423" s="6"/>
       <c r="T423" s="7"/>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="s">
         <v>28</v>
       </c>
@@ -30070,7 +30481,7 @@
       <c r="S424" s="6"/>
       <c r="T424" s="7"/>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A425" s="9" t="s">
         <v>29</v>
       </c>
@@ -30099,7 +30510,7 @@
       <c r="S425" s="6"/>
       <c r="T425" s="7"/>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
         <v>30</v>
       </c>
@@ -30115,7 +30526,7 @@
       <c r="S426" s="6"/>
       <c r="T426" s="7"/>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A427" s="9" t="s">
         <v>31</v>
       </c>
@@ -30137,28 +30548,28 @@
       <c r="S427" s="6"/>
       <c r="T427" s="7"/>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A428" s="9"/>
       <c r="B428" s="10"/>
       <c r="C428" s="10"/>
       <c r="E428" s="10"/>
       <c r="F428" s="16"/>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A429" s="9"/>
       <c r="B429" s="10"/>
       <c r="C429" s="10"/>
       <c r="E429" s="10"/>
       <c r="F429" s="16"/>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A430" s="9"/>
       <c r="B430" s="10"/>
       <c r="C430" s="10"/>
       <c r="E430" s="10"/>
       <c r="F430" s="16"/>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A431" s="17" t="s">
         <v>32</v>
       </c>
@@ -30173,7 +30584,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B432" s="10" t="s">
         <v>13</v>
       </c>
@@ -30187,7 +30598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="9" t="s">
         <v>17</v>
       </c>
@@ -30202,7 +30613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="9" t="s">
         <v>18</v>
       </c>
@@ -30217,7 +30628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
         <v>19</v>
       </c>
@@ -30232,7 +30643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="9" t="s">
         <v>20</v>
       </c>
@@ -30247,7 +30658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="9" t="s">
         <v>21</v>
       </c>
@@ -30262,7 +30673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
         <v>22</v>
       </c>
@@ -30277,7 +30688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="s">
         <v>23</v>
       </c>
@@ -30292,7 +30703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="s">
         <v>24</v>
       </c>
@@ -30307,7 +30718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
         <v>25</v>
       </c>
@@ -30322,7 +30733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
         <v>26</v>
       </c>
@@ -30337,7 +30748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
         <v>27</v>
       </c>
@@ -30352,7 +30763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
         <v>28</v>
       </c>
@@ -30367,7 +30778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
         <v>29</v>
       </c>
@@ -30389,7 +30800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
         <v>30</v>
       </c>
@@ -30398,7 +30809,7 @@
       <c r="E446" s="10"/>
       <c r="F446" s="18"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
         <v>31</v>
       </c>
@@ -30413,7 +30824,7 @@
       <c r="E447" s="10"/>
       <c r="F447" s="10"/>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>42</v>
       </c>
@@ -30437,10 +30848,10 @@
       <c r="S453" s="3"/>
       <c r="T453" s="3"/>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
         <v>11</v>
       </c>
@@ -30451,7 +30862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B456" s="1" t="s">
         <v>13</v>
       </c>
@@ -30472,7 +30883,7 @@
       <c r="S456" s="6"/>
       <c r="T456" s="7"/>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
         <v>17</v>
       </c>
@@ -30494,7 +30905,7 @@
       <c r="S457" s="6"/>
       <c r="T457" s="7"/>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
         <v>18</v>
       </c>
@@ -30516,7 +30927,7 @@
       <c r="S458" s="6"/>
       <c r="T458" s="7"/>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A459" s="9" t="s">
         <v>19</v>
       </c>
@@ -30538,7 +30949,7 @@
       <c r="S459" s="6"/>
       <c r="T459" s="7"/>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A460" s="9" t="s">
         <v>20</v>
       </c>
@@ -30560,7 +30971,7 @@
       <c r="S460" s="6"/>
       <c r="T460" s="7"/>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="s">
         <v>21</v>
       </c>
@@ -30582,7 +30993,7 @@
       <c r="S461" s="6"/>
       <c r="T461" s="7"/>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A462" s="9" t="s">
         <v>22</v>
       </c>
@@ -30604,7 +31015,7 @@
       <c r="S462" s="6"/>
       <c r="T462" s="7"/>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A463" s="9" t="s">
         <v>23</v>
       </c>
@@ -30626,7 +31037,7 @@
       <c r="S463" s="6"/>
       <c r="T463" s="7"/>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A464" s="9" t="s">
         <v>24</v>
       </c>
@@ -30648,7 +31059,7 @@
       <c r="S464" s="6"/>
       <c r="T464" s="7"/>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="s">
         <v>25</v>
       </c>
@@ -30670,7 +31081,7 @@
       <c r="S465" s="6"/>
       <c r="T465" s="7"/>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A466" s="9" t="s">
         <v>26</v>
       </c>
@@ -30692,7 +31103,7 @@
       <c r="S466" s="6"/>
       <c r="T466" s="7"/>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A467" s="9" t="s">
         <v>27</v>
       </c>
@@ -30714,7 +31125,7 @@
       <c r="S467" s="6"/>
       <c r="T467" s="7"/>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A468" s="9" t="s">
         <v>28</v>
       </c>
@@ -30736,7 +31147,7 @@
       <c r="S468" s="6"/>
       <c r="T468" s="7"/>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A469" s="9" t="s">
         <v>29</v>
       </c>
@@ -30765,7 +31176,7 @@
       <c r="S469" s="6"/>
       <c r="T469" s="7"/>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A470" s="9" t="s">
         <v>30</v>
       </c>
@@ -30781,7 +31192,7 @@
       <c r="S470" s="6"/>
       <c r="T470" s="7"/>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A471" s="9" t="s">
         <v>31</v>
       </c>
@@ -30803,28 +31214,28 @@
       <c r="S471" s="6"/>
       <c r="T471" s="7"/>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A472" s="9"/>
       <c r="B472" s="10"/>
       <c r="C472" s="10"/>
       <c r="E472" s="10"/>
       <c r="F472" s="16"/>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A473" s="9"/>
       <c r="B473" s="10"/>
       <c r="C473" s="10"/>
       <c r="E473" s="10"/>
       <c r="F473" s="16"/>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A474" s="9"/>
       <c r="B474" s="10"/>
       <c r="C474" s="10"/>
       <c r="E474" s="10"/>
       <c r="F474" s="16"/>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A475" s="17" t="s">
         <v>32</v>
       </c>
@@ -30839,7 +31250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B476" s="10" t="s">
         <v>13</v>
       </c>
@@ -30853,7 +31264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A477" s="9" t="s">
         <v>17</v>
       </c>
@@ -30868,7 +31279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="s">
         <v>18</v>
       </c>
@@ -30883,7 +31294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A479" s="9" t="s">
         <v>19</v>
       </c>
@@ -30898,7 +31309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A480" s="9" t="s">
         <v>20</v>
       </c>
@@ -30913,7 +31324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
         <v>21</v>
       </c>
@@ -30928,7 +31339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="9" t="s">
         <v>22</v>
       </c>
@@ -30943,7 +31354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="9" t="s">
         <v>23</v>
       </c>
@@ -30958,7 +31369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="9" t="s">
         <v>24</v>
       </c>
@@ -30973,7 +31384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="9" t="s">
         <v>25</v>
       </c>
@@ -30988,7 +31399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="s">
         <v>26</v>
       </c>
@@ -31003,7 +31414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="9" t="s">
         <v>27</v>
       </c>
@@ -31018,7 +31429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="9" t="s">
         <v>28</v>
       </c>
@@ -31033,7 +31444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="9" t="s">
         <v>29</v>
       </c>
@@ -31055,7 +31466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="9" t="s">
         <v>30</v>
       </c>
@@ -31064,7 +31475,7 @@
       <c r="E490" s="10"/>
       <c r="F490" s="18"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="9" t="s">
         <v>31</v>
       </c>
@@ -31210,20 +31621,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2D87B4-CEEE-4B9A-8702-F7D13553FAE4}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="35"/>
+    <col min="1" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -31237,7 +31648,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -31247,7 +31658,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
@@ -31259,7 +31670,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
@@ -31271,7 +31682,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -31283,7 +31694,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
@@ -31297,7 +31708,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -31309,7 +31720,7 @@
       <c r="G7" s="29"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -31321,7 +31732,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="27"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -31333,7 +31744,7 @@
       <c r="G9" s="26"/>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -31345,7 +31756,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -31355,7 +31766,7 @@
       <c r="G11" s="26"/>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>9</v>
       </c>
@@ -31369,7 +31780,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -31379,7 +31790,7 @@
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -31411,20 +31822,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1266372E-B20D-452F-90D6-599E52806A7D}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="35"/>
+    <col min="1" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -31438,7 +31849,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -31448,7 +31859,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
@@ -31460,7 +31871,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
@@ -31472,7 +31883,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -31484,7 +31895,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
@@ -31498,7 +31909,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -31510,7 +31921,7 @@
       <c r="G7" s="29"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -31522,7 +31933,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="27"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -31534,7 +31945,7 @@
       <c r="G9" s="26"/>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -31546,7 +31957,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -31556,7 +31967,7 @@
       <c r="G11" s="26"/>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>9</v>
       </c>
@@ -31570,7 +31981,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -31580,7 +31991,7 @@
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
